--- a/scoresheets/MATCH63.xlsx
+++ b/scoresheets/MATCH63.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J. Edgington\Documents\GitHub\DUOACHCATT-5-15-21-STATS\scoresheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab4ea91dc20bd738/Documents/GitHub/DUOACHCATT-5-15-21-STATS/scoresheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC58CEF-B9CF-4CD0-A247-20BEC18E883C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8EC58CEF-B9CF-4CD0-A247-20BEC18E883C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6074D50E-4607-415E-9EA8-F285F47B2A2C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{95FD00A9-8369-43DC-ADF4-6CF83B704462}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{95FD00A9-8369-43DC-ADF4-6CF83B704462}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,6 @@
     <sheet name="Individuals_Raw" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="Individuals" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -65,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>Team A</t>
   </si>
@@ -136,16 +132,25 @@
     <t>Points</t>
   </si>
   <si>
-    <t>noah</t>
+    <t>hook</t>
   </si>
   <si>
-    <t>clete</t>
+    <t>Clete Reinberger</t>
   </si>
   <si>
-    <t>hildy</t>
+    <t>Noah Mcredmond</t>
   </si>
   <si>
-    <t>hook</t>
+    <t>Axe (Hildy)</t>
+  </si>
+  <si>
+    <t>Aidan Hook</t>
+  </si>
+  <si>
+    <t>H-Squared</t>
+  </si>
+  <si>
+    <t>The Woke Left Strikes Again</t>
   </si>
 </sst>
 </file>
@@ -981,6 +986,140 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -990,129 +1129,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1131,12 +1147,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1223,11 +1233,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1244,64 +1249,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Category"/>
-      <sheetName val="Alphabet"/>
-      <sheetName val="Lightning"/>
-      <sheetName val="Final"/>
-      <sheetName val="Individuals_Raw"/>
-      <sheetName val="Individuals"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="F1" t="str">
-            <v>The Woke Left Strikes Again</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Category"/>
-      <sheetName val="Alphabet"/>
-      <sheetName val="Lightning"/>
-      <sheetName val="Final"/>
-      <sheetName val="Individuals_Raw"/>
-      <sheetName val="Individuals"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>H-Squared</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1603,29 +1550,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFC316D-2D30-476B-991D-34DAE97DCA86}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="105" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="1"/>
-    <col min="3" max="8" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.06640625" style="1"/>
+    <col min="3" max="8" width="11.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="65" t="str">
-        <f>[1]Category!F1</f>
-        <v>The Woke Left Strikes Again</v>
+    <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C1" s="65" t="s">
+        <v>29</v>
       </c>
       <c r="D1" s="66"/>
       <c r="E1" s="67"/>
-      <c r="F1" s="151" t="str">
-        <f>[2]Category!C1</f>
-        <v>H-Squared</v>
-      </c>
-      <c r="G1" s="149"/>
-      <c r="H1" s="150"/>
+      <c r="F1" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="69"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="58"/>
       <c r="J1" s="58"/>
       <c r="K1" s="58"/>
@@ -1633,7 +1578,7 @@
       <c r="M1" s="58"/>
       <c r="N1" s="58"/>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1641,16 +1586,16 @@
         <v>24</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>3</v>
@@ -1662,7 +1607,7 @@
       <c r="M2" s="46"/>
       <c r="N2" s="46"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="59" t="s">
         <v>4</v>
       </c>
@@ -1686,7 +1631,7 @@
       <c r="M3" s="47"/>
       <c r="N3" s="47"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="60"/>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -1706,7 +1651,7 @@
       <c r="M4" s="47"/>
       <c r="N4" s="47"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="61"/>
       <c r="B5" s="9" t="s">
         <v>5</v>
@@ -1726,7 +1671,7 @@
       <c r="M5" s="47"/>
       <c r="N5" s="47"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="62" t="s">
         <v>6</v>
       </c>
@@ -1750,7 +1695,7 @@
       <c r="M6" s="47"/>
       <c r="N6" s="47"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="63"/>
       <c r="B7" s="15" t="s">
         <v>0</v>
@@ -1768,7 +1713,7 @@
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="64"/>
       <c r="B8" s="18" t="s">
         <v>5</v>
@@ -1788,7 +1733,7 @@
       <c r="M8" s="47"/>
       <c r="N8" s="47"/>
     </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="71" t="s">
         <v>7</v>
       </c>
@@ -1810,7 +1755,7 @@
       <c r="M9" s="47"/>
       <c r="N9" s="47"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="60"/>
       <c r="B10" s="6" t="s">
         <v>1</v>
@@ -1830,7 +1775,7 @@
       <c r="M10" s="47"/>
       <c r="N10" s="47"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="61"/>
       <c r="B11" s="9" t="s">
         <v>5</v>
@@ -1850,7 +1795,7 @@
       <c r="M11" s="47"/>
       <c r="N11" s="47"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" s="62" t="s">
         <v>8</v>
       </c>
@@ -1872,7 +1817,7 @@
       <c r="M12" s="47"/>
       <c r="N12" s="47"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="63"/>
       <c r="B13" s="15" t="s">
         <v>0</v>
@@ -1894,7 +1839,7 @@
       <c r="M13" s="47"/>
       <c r="N13" s="47"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="64"/>
       <c r="B14" s="18" t="s">
         <v>5</v>
@@ -1912,7 +1857,7 @@
       <c r="M14" s="47"/>
       <c r="N14" s="47"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="71" t="s">
         <v>9</v>
       </c>
@@ -1934,7 +1879,7 @@
       <c r="M15" s="47"/>
       <c r="N15" s="47"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="60"/>
       <c r="B16" s="6" t="s">
         <v>1</v>
@@ -1954,7 +1899,7 @@
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="61"/>
       <c r="B17" s="9" t="s">
         <v>5</v>
@@ -1972,7 +1917,7 @@
       <c r="M17" s="47"/>
       <c r="N17" s="47"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" s="62" t="s">
         <v>10</v>
       </c>
@@ -1994,7 +1939,7 @@
       <c r="M18" s="47"/>
       <c r="N18" s="47"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="63"/>
       <c r="B19" s="15" t="s">
         <v>0</v>
@@ -2014,7 +1959,7 @@
       <c r="M19" s="47"/>
       <c r="N19" s="47"/>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="64"/>
       <c r="B20" s="18" t="s">
         <v>5</v>
@@ -2034,7 +1979,7 @@
       <c r="M20" s="47"/>
       <c r="N20" s="47"/>
     </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="71" t="s">
         <v>11</v>
       </c>
@@ -2056,7 +2001,7 @@
       <c r="M21" s="47"/>
       <c r="N21" s="47"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="60"/>
       <c r="B22" s="6" t="s">
         <v>1</v>
@@ -2076,7 +2021,7 @@
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="61"/>
       <c r="B23" s="9" t="s">
         <v>5</v>
@@ -2096,7 +2041,7 @@
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="62" t="s">
         <v>12</v>
       </c>
@@ -2118,7 +2063,7 @@
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="63"/>
       <c r="B25" s="15" t="s">
         <v>0</v>
@@ -2138,7 +2083,7 @@
       <c r="M25" s="47"/>
       <c r="N25" s="47"/>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="64"/>
       <c r="B26" s="18" t="s">
         <v>5</v>
@@ -2156,7 +2101,7 @@
       <c r="M26" s="47"/>
       <c r="N26" s="47"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="71" t="s">
         <v>13</v>
       </c>
@@ -2178,7 +2123,7 @@
       <c r="M27" s="47"/>
       <c r="N27" s="47"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="60"/>
       <c r="B28" s="6" t="s">
         <v>1</v>
@@ -2198,7 +2143,7 @@
       <c r="M28" s="47"/>
       <c r="N28" s="47"/>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="61"/>
       <c r="B29" s="9" t="s">
         <v>5</v>
@@ -2218,7 +2163,7 @@
       <c r="M29" s="47"/>
       <c r="N29" s="47"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" s="62" t="s">
         <v>14</v>
       </c>
@@ -2240,7 +2185,7 @@
       <c r="M30" s="47"/>
       <c r="N30" s="47"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="63"/>
       <c r="B31" s="15" t="s">
         <v>0</v>
@@ -2260,7 +2205,7 @@
       <c r="M31" s="47"/>
       <c r="N31" s="47"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="64"/>
       <c r="B32" s="24" t="s">
         <v>5</v>
@@ -2278,7 +2223,7 @@
       <c r="M32" s="47"/>
       <c r="N32" s="47"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="77" t="s">
         <v>15</v>
       </c>
@@ -2314,7 +2259,7 @@
       <c r="M33" s="76"/>
       <c r="N33" s="76"/>
     </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="79"/>
       <c r="B34" s="80"/>
       <c r="C34" s="73"/>
@@ -2372,9 +2317,9 @@
       <selection activeCell="F3" sqref="F3:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="97"/>
       <c r="B1" s="85" t="str">
         <f>Category!C1</f>
@@ -2391,7 +2336,7 @@
       <c r="H1" s="92"/>
       <c r="I1" s="93"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="98"/>
       <c r="B2" s="88"/>
       <c r="C2" s="89"/>
@@ -2402,7 +2347,7 @@
       <c r="H2" s="95"/>
       <c r="I2" s="96"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="99" t="s">
         <v>17</v>
       </c>
@@ -2419,7 +2364,7 @@
       <c r="H3" s="107"/>
       <c r="I3" s="108"/>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="98"/>
       <c r="B4" s="103"/>
       <c r="C4" s="104"/>
@@ -2430,7 +2375,7 @@
       <c r="H4" s="110"/>
       <c r="I4" s="111"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="49"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -2441,7 +2386,7 @@
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="49"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -2452,7 +2397,7 @@
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="49"/>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
@@ -2463,7 +2408,7 @@
       <c r="H7" s="48"/>
       <c r="I7" s="48"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="49"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -2474,7 +2419,7 @@
       <c r="H8" s="48"/>
       <c r="I8" s="48"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="49"/>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -2485,7 +2430,7 @@
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="49"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -2496,7 +2441,7 @@
       <c r="H10" s="48"/>
       <c r="I10" s="48"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="49"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
@@ -2507,7 +2452,7 @@
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="49"/>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -2518,7 +2463,7 @@
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="49"/>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
@@ -2529,7 +2474,7 @@
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="49"/>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
@@ -2540,7 +2485,7 @@
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="49"/>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
@@ -2551,7 +2496,7 @@
       <c r="H15" s="48"/>
       <c r="I15" s="48"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="49"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -2562,7 +2507,7 @@
       <c r="H16" s="48"/>
       <c r="I16" s="48"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="49"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
@@ -2573,7 +2518,7 @@
       <c r="H17" s="48"/>
       <c r="I17" s="48"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="49"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
@@ -2584,7 +2529,7 @@
       <c r="H18" s="48"/>
       <c r="I18" s="48"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="49"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
@@ -2595,7 +2540,7 @@
       <c r="H19" s="48"/>
       <c r="I19" s="48"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="49"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48"/>
@@ -2606,7 +2551,7 @@
       <c r="H20" s="48"/>
       <c r="I20" s="48"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="49"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
@@ -2617,7 +2562,7 @@
       <c r="H21" s="48"/>
       <c r="I21" s="48"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="49"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
@@ -2628,7 +2573,7 @@
       <c r="H22" s="48"/>
       <c r="I22" s="48"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="49"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
@@ -2639,7 +2584,7 @@
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="49"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48"/>
@@ -2650,7 +2595,7 @@
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="49"/>
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
@@ -2661,7 +2606,7 @@
       <c r="H25" s="48"/>
       <c r="I25" s="48"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="49"/>
       <c r="B26" s="48"/>
       <c r="C26" s="48"/>
@@ -2672,7 +2617,7 @@
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="49"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
@@ -2683,7 +2628,7 @@
       <c r="H27" s="48"/>
       <c r="I27" s="48"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="49"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
@@ -2694,7 +2639,7 @@
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="49"/>
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
@@ -2705,7 +2650,7 @@
       <c r="H29" s="48"/>
       <c r="I29" s="48"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="49"/>
       <c r="B30" s="48"/>
       <c r="C30" s="48"/>
@@ -2716,7 +2661,7 @@
       <c r="H30" s="48"/>
       <c r="I30" s="48"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="49"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48"/>
@@ -2727,7 +2672,7 @@
       <c r="H31" s="48"/>
       <c r="I31" s="48"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="49"/>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
@@ -2738,7 +2683,7 @@
       <c r="H32" s="48"/>
       <c r="I32" s="48"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="49"/>
       <c r="B33" s="48"/>
       <c r="C33" s="48"/>
@@ -2749,7 +2694,7 @@
       <c r="H33" s="48"/>
       <c r="I33" s="48"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="49"/>
       <c r="B34" s="48"/>
       <c r="C34" s="48"/>
@@ -2760,7 +2705,7 @@
       <c r="H34" s="48"/>
       <c r="I34" s="48"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="49"/>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
@@ -2771,7 +2716,7 @@
       <c r="H35" s="48"/>
       <c r="I35" s="48"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="49"/>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
@@ -2782,7 +2727,7 @@
       <c r="H36" s="48"/>
       <c r="I36" s="48"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="49"/>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
@@ -2793,7 +2738,7 @@
       <c r="H37" s="48"/>
       <c r="I37" s="48"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="49"/>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -2804,7 +2749,7 @@
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="49"/>
       <c r="B39" s="48"/>
       <c r="C39" s="48"/>
@@ -2815,7 +2760,7 @@
       <c r="H39" s="48"/>
       <c r="I39" s="48"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="49"/>
       <c r="B40" s="48"/>
       <c r="C40" s="48"/>
@@ -2826,7 +2771,7 @@
       <c r="H40" s="48"/>
       <c r="I40" s="48"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="49"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -2837,7 +2782,7 @@
       <c r="H41" s="48"/>
       <c r="I41" s="48"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="49"/>
       <c r="B42" s="48"/>
       <c r="C42" s="48"/>
@@ -2848,7 +2793,7 @@
       <c r="H42" s="48"/>
       <c r="I42" s="48"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="49"/>
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
@@ -2859,7 +2804,7 @@
       <c r="H43" s="48"/>
       <c r="I43" s="48"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="49"/>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
@@ -2870,7 +2815,7 @@
       <c r="H44" s="48"/>
       <c r="I44" s="48"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="49"/>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
@@ -2881,7 +2826,7 @@
       <c r="H45" s="48"/>
       <c r="I45" s="48"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="49"/>
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
@@ -2892,7 +2837,7 @@
       <c r="H46" s="48"/>
       <c r="I46" s="48"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="49"/>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
@@ -2903,7 +2848,7 @@
       <c r="H47" s="48"/>
       <c r="I47" s="48"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="49"/>
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
@@ -2914,7 +2859,7 @@
       <c r="H48" s="48"/>
       <c r="I48" s="48"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="49"/>
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
@@ -2925,7 +2870,7 @@
       <c r="H49" s="48"/>
       <c r="I49" s="48"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="49"/>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
@@ -2936,7 +2881,7 @@
       <c r="H50" s="48"/>
       <c r="I50" s="48"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="49"/>
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
@@ -2947,7 +2892,7 @@
       <c r="H51" s="48"/>
       <c r="I51" s="48"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="49"/>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
@@ -2958,7 +2903,7 @@
       <c r="H52" s="48"/>
       <c r="I52" s="48"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="49"/>
       <c r="B53" s="48"/>
       <c r="C53" s="48"/>
@@ -2969,7 +2914,7 @@
       <c r="H53" s="48"/>
       <c r="I53" s="48"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="49"/>
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
@@ -2980,7 +2925,7 @@
       <c r="H54" s="48"/>
       <c r="I54" s="48"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="49"/>
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
@@ -2991,7 +2936,7 @@
       <c r="H55" s="48"/>
       <c r="I55" s="48"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="49"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
@@ -3002,7 +2947,7 @@
       <c r="H56" s="48"/>
       <c r="I56" s="48"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="49"/>
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
@@ -3013,7 +2958,7 @@
       <c r="H57" s="48"/>
       <c r="I57" s="48"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="49"/>
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
@@ -3024,7 +2969,7 @@
       <c r="H58" s="48"/>
       <c r="I58" s="48"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="49"/>
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
@@ -3035,7 +2980,7 @@
       <c r="H59" s="48"/>
       <c r="I59" s="48"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="49"/>
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
@@ -3046,7 +2991,7 @@
       <c r="H60" s="48"/>
       <c r="I60" s="48"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="49"/>
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
@@ -3057,7 +3002,7 @@
       <c r="H61" s="48"/>
       <c r="I61" s="48"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="49"/>
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
@@ -3068,7 +3013,7 @@
       <c r="H62" s="48"/>
       <c r="I62" s="48"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="49"/>
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
@@ -3079,7 +3024,7 @@
       <c r="H63" s="48"/>
       <c r="I63" s="48"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="49"/>
       <c r="B64" s="48"/>
       <c r="C64" s="48"/>
@@ -3090,7 +3035,7 @@
       <c r="H64" s="48"/>
       <c r="I64" s="48"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="49"/>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
@@ -3101,7 +3046,7 @@
       <c r="H65" s="48"/>
       <c r="I65" s="48"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="49"/>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
@@ -3112,7 +3057,7 @@
       <c r="H66" s="48"/>
       <c r="I66" s="48"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="49"/>
       <c r="B67" s="48"/>
       <c r="C67" s="48"/>
@@ -3123,7 +3068,7 @@
       <c r="H67" s="48"/>
       <c r="I67" s="48"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="49"/>
       <c r="B68" s="48"/>
       <c r="C68" s="48"/>
@@ -3134,7 +3079,7 @@
       <c r="H68" s="48"/>
       <c r="I68" s="48"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="49"/>
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
@@ -3145,7 +3090,7 @@
       <c r="H69" s="48"/>
       <c r="I69" s="48"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="49"/>
       <c r="B70" s="48"/>
       <c r="C70" s="48"/>
@@ -3156,7 +3101,7 @@
       <c r="H70" s="48"/>
       <c r="I70" s="48"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="49"/>
       <c r="B71" s="48"/>
       <c r="C71" s="48"/>
@@ -3167,7 +3112,7 @@
       <c r="H71" s="48"/>
       <c r="I71" s="48"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="49"/>
       <c r="B72" s="48"/>
       <c r="C72" s="48"/>
@@ -3178,7 +3123,7 @@
       <c r="H72" s="48"/>
       <c r="I72" s="48"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="49"/>
       <c r="B73" s="48"/>
       <c r="C73" s="48"/>
@@ -3189,7 +3134,7 @@
       <c r="H73" s="48"/>
       <c r="I73" s="48"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="49"/>
       <c r="B74" s="48"/>
       <c r="C74" s="48"/>
@@ -3200,7 +3145,7 @@
       <c r="H74" s="48"/>
       <c r="I74" s="48"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="49"/>
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
@@ -3211,7 +3156,7 @@
       <c r="H75" s="48"/>
       <c r="I75" s="48"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="49"/>
       <c r="B76" s="48"/>
       <c r="C76" s="48"/>
@@ -3222,7 +3167,7 @@
       <c r="H76" s="48"/>
       <c r="I76" s="48"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="49"/>
       <c r="B77" s="48"/>
       <c r="C77" s="48"/>
@@ -3233,7 +3178,7 @@
       <c r="H77" s="48"/>
       <c r="I77" s="48"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="49"/>
       <c r="B78" s="48"/>
       <c r="C78" s="48"/>
@@ -3244,7 +3189,7 @@
       <c r="H78" s="48"/>
       <c r="I78" s="48"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="49"/>
       <c r="B79" s="48"/>
       <c r="C79" s="48"/>
@@ -3255,7 +3200,7 @@
       <c r="H79" s="48"/>
       <c r="I79" s="48"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="49"/>
       <c r="B80" s="48"/>
       <c r="C80" s="48"/>
@@ -3266,7 +3211,7 @@
       <c r="H80" s="48"/>
       <c r="I80" s="48"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="49"/>
       <c r="B81" s="48"/>
       <c r="C81" s="48"/>
@@ -3277,7 +3222,7 @@
       <c r="H81" s="48"/>
       <c r="I81" s="48"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="49"/>
       <c r="B82" s="48"/>
       <c r="C82" s="48"/>
@@ -3309,9 +3254,9 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
       <c r="C1" s="65" t="str">
         <f>Category!C1</f>
@@ -3319,12 +3264,12 @@
       </c>
       <c r="D1" s="66"/>
       <c r="E1" s="67"/>
-      <c r="F1" s="68" t="str">
+      <c r="F1" s="114" t="str">
         <f>Category!F1</f>
         <v>H-Squared</v>
       </c>
-      <c r="G1" s="69"/>
-      <c r="H1" s="70"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
       <c r="K1" s="48"/>
@@ -3332,28 +3277,28 @@
       <c r="M1" s="48"/>
       <c r="N1" s="48"/>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="26" t="str">
         <f>Category!C2</f>
-        <v>clete</v>
+        <v>Clete Reinberger</v>
       </c>
       <c r="D2" s="27" t="str">
         <f>Category!D2</f>
-        <v>noah</v>
+        <v>Noah Mcredmond</v>
       </c>
       <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="26" t="str">
         <f>Category!F2</f>
-        <v>hildy</v>
+        <v>Axe (Hildy)</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>3</v>
@@ -3365,8 +3310,8 @@
       <c r="M2" s="46"/>
       <c r="N2" s="46"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="112">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="117">
         <v>5</v>
       </c>
       <c r="B3" s="29">
@@ -3387,8 +3332,8 @@
       <c r="M3" s="47"/>
       <c r="N3" s="47"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="113"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="118"/>
       <c r="B4" s="30">
         <v>2</v>
       </c>
@@ -3405,8 +3350,8 @@
       <c r="M4" s="47"/>
       <c r="N4" s="47"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="113"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="118"/>
       <c r="B5" s="30">
         <v>3</v>
       </c>
@@ -3425,8 +3370,8 @@
       <c r="M5" s="47"/>
       <c r="N5" s="47"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="113"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="118"/>
       <c r="B6" s="30">
         <v>4</v>
       </c>
@@ -3443,8 +3388,8 @@
       <c r="M6" s="47"/>
       <c r="N6" s="47"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="114"/>
+    <row r="7" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="119"/>
       <c r="B7" s="31">
         <v>5</v>
       </c>
@@ -3463,8 +3408,8 @@
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="115">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="120">
         <v>10</v>
       </c>
       <c r="B8" s="32">
@@ -3485,8 +3430,8 @@
       <c r="M8" s="47"/>
       <c r="N8" s="47"/>
     </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="116"/>
+    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="121"/>
       <c r="B9" s="33">
         <v>7</v>
       </c>
@@ -3505,8 +3450,8 @@
       <c r="M9" s="47"/>
       <c r="N9" s="47"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="116"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="121"/>
       <c r="B10" s="33">
         <v>8</v>
       </c>
@@ -3523,8 +3468,8 @@
       <c r="M10" s="47"/>
       <c r="N10" s="47"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="116"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="121"/>
       <c r="B11" s="33">
         <v>9</v>
       </c>
@@ -3543,8 +3488,8 @@
       <c r="M11" s="47"/>
       <c r="N11" s="47"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="117"/>
+    <row r="12" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="122"/>
       <c r="B12" s="34">
         <v>10</v>
       </c>
@@ -3563,8 +3508,8 @@
       <c r="M12" s="47"/>
       <c r="N12" s="47"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="112">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="117">
         <v>15</v>
       </c>
       <c r="B13" s="29">
@@ -3585,8 +3530,8 @@
       <c r="M13" s="47"/>
       <c r="N13" s="47"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="118"/>
       <c r="B14" s="30">
         <v>12</v>
       </c>
@@ -3605,8 +3550,8 @@
       <c r="M14" s="47"/>
       <c r="N14" s="47"/>
     </row>
-    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="113"/>
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="118"/>
       <c r="B15" s="30">
         <v>13</v>
       </c>
@@ -3625,8 +3570,8 @@
       <c r="M15" s="47"/>
       <c r="N15" s="47"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="113"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="118"/>
       <c r="B16" s="30">
         <v>14</v>
       </c>
@@ -3645,8 +3590,8 @@
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="114"/>
+    <row r="17" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="119"/>
       <c r="B17" s="31">
         <v>15</v>
       </c>
@@ -3665,8 +3610,8 @@
       <c r="M17" s="47"/>
       <c r="N17" s="47"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="115">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="120">
         <v>20</v>
       </c>
       <c r="B18" s="32">
@@ -3685,8 +3630,8 @@
       <c r="M18" s="47"/>
       <c r="N18" s="47"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="116"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A19" s="121"/>
       <c r="B19" s="33">
         <v>17</v>
       </c>
@@ -3705,8 +3650,8 @@
       <c r="M19" s="47"/>
       <c r="N19" s="47"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="116"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" s="121"/>
       <c r="B20" s="33">
         <v>18</v>
       </c>
@@ -3723,8 +3668,8 @@
       <c r="M20" s="47"/>
       <c r="N20" s="47"/>
     </row>
-    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="116"/>
+    <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="121"/>
       <c r="B21" s="33">
         <v>19</v>
       </c>
@@ -3743,8 +3688,8 @@
       <c r="M21" s="47"/>
       <c r="N21" s="47"/>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="117"/>
+    <row r="22" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="122"/>
       <c r="B22" s="34">
         <v>20</v>
       </c>
@@ -3761,8 +3706,8 @@
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="112">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" s="117">
         <v>25</v>
       </c>
       <c r="B23" s="29">
@@ -3781,8 +3726,8 @@
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
     </row>
-    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="113"/>
+    <row r="24" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="118"/>
       <c r="B24" s="30">
         <v>22</v>
       </c>
@@ -3799,8 +3744,8 @@
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="113"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" s="118"/>
       <c r="B25" s="30">
         <v>23</v>
       </c>
@@ -3817,8 +3762,8 @@
       <c r="M25" s="47"/>
       <c r="N25" s="47"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="113"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A26" s="118"/>
       <c r="B26" s="30">
         <v>24</v>
       </c>
@@ -3837,8 +3782,8 @@
       <c r="M26" s="47"/>
       <c r="N26" s="47"/>
     </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="114"/>
+    <row r="27" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="119"/>
       <c r="B27" s="31">
         <v>25</v>
       </c>
@@ -3855,8 +3800,8 @@
       <c r="M27" s="47"/>
       <c r="N27" s="47"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="116">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="121">
         <v>30</v>
       </c>
       <c r="B28" s="35">
@@ -3877,8 +3822,8 @@
       <c r="M28" s="47"/>
       <c r="N28" s="47"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="116"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A29" s="121"/>
       <c r="B29" s="33">
         <v>27</v>
       </c>
@@ -3897,8 +3842,8 @@
       <c r="M29" s="47"/>
       <c r="N29" s="47"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="116"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A30" s="121"/>
       <c r="B30" s="33">
         <v>28</v>
       </c>
@@ -3917,8 +3862,8 @@
       <c r="M30" s="47"/>
       <c r="N30" s="47"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="116"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A31" s="121"/>
       <c r="B31" s="33">
         <v>29</v>
       </c>
@@ -3937,8 +3882,8 @@
       <c r="M31" s="47"/>
       <c r="N31" s="47"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="117"/>
+    <row r="32" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="122"/>
       <c r="B32" s="34">
         <v>30</v>
       </c>
@@ -3957,7 +3902,7 @@
       <c r="M32" s="47"/>
       <c r="N32" s="47"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="77" t="s">
         <v>15</v>
       </c>
@@ -3982,7 +3927,7 @@
         <f>SUM(G3:G32)</f>
         <v>6</v>
       </c>
-      <c r="H33" s="118">
+      <c r="H33" s="112">
         <f>SUM(H3:H32)+F33+G33</f>
         <v>18</v>
       </c>
@@ -3993,7 +3938,7 @@
       <c r="M33" s="49"/>
       <c r="N33" s="49"/>
     </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="79"/>
       <c r="B34" s="80"/>
       <c r="C34" s="73"/>
@@ -4001,7 +3946,7 @@
       <c r="E34" s="84"/>
       <c r="F34" s="73"/>
       <c r="G34" s="75"/>
-      <c r="H34" s="119"/>
+      <c r="H34" s="113"/>
       <c r="I34" s="49"/>
       <c r="J34" s="49"/>
       <c r="K34" s="49"/>
@@ -4039,155 +3984,155 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="120"/>
-      <c r="B1" s="120"/>
-      <c r="C1" s="121" t="str">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="123"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="124" t="str">
         <f>Category!C1</f>
         <v>The Woke Left Strikes Again</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="127" t="str">
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="130" t="str">
         <f>Category!F1</f>
         <v>H-Squared</v>
       </c>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="129"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="132"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="133" t="s">
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="132"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="135"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="134"/>
-      <c r="C3" s="133">
+      <c r="B3" s="137"/>
+      <c r="C3" s="136">
         <f>Category!E33</f>
         <v>17</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="133">
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="136">
         <f>Category!H33</f>
         <v>15</v>
       </c>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="134"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
-      <c r="L4" s="136"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="143" t="s">
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="137"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="139"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="143">
+      <c r="B5" s="148"/>
+      <c r="C5" s="146">
         <f>Alphabet!B3</f>
         <v>9</v>
       </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="143">
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="146">
         <f>Alphabet!F3</f>
         <v>11</v>
       </c>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="145"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="146"/>
-      <c r="B6" s="148"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="148"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="133" t="s">
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="148"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="149"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="151"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="133">
+      <c r="B7" s="137"/>
+      <c r="C7" s="136">
         <f>Lightning!E33</f>
         <v>22</v>
       </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="133">
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="136">
         <f>Lightning!H33</f>
         <v>18</v>
       </c>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="137"/>
-      <c r="L7" s="134"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="135"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
-      <c r="L8" s="136"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="139" t="s">
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="137"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="138"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="139"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="140"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="85">
         <f>SUM(C3:G8)</f>
         <v>48</v>
@@ -4205,9 +4150,9 @@
       <c r="K9" s="92"/>
       <c r="L9" s="93"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="141"/>
-      <c r="B10" s="142"/>
+    <row r="10" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="144"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="88"/>
       <c r="D10" s="89"/>
       <c r="E10" s="89"/>
@@ -4249,12 +4194,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.26953125" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.265625" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="12.26953125" style="25"/>
+    <col min="1" max="16384" width="12.265625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="39" t="s">
         <v>21</v>
       </c>
@@ -4268,10 +4213,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="51" t="str">
         <f>Category!C2</f>
-        <v>clete</v>
+        <v>Clete Reinberger</v>
       </c>
       <c r="B2" s="36">
         <f t="shared" ref="B2:B5" si="0">3*C2+2*D2</f>
@@ -4286,10 +4231,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="52" t="str">
         <f>Category!D2</f>
-        <v>noah</v>
+        <v>Noah Mcredmond</v>
       </c>
       <c r="B3" s="37">
         <f t="shared" si="0"/>
@@ -4304,10 +4249,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="52" t="str">
         <f>Category!F2</f>
-        <v>hildy</v>
+        <v>Axe (Hildy)</v>
       </c>
       <c r="B4" s="37">
         <f t="shared" si="0"/>
@@ -4322,10 +4267,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="53" t="str">
         <f>Category!G2</f>
-        <v>clete</v>
+        <v>Aidan Hook</v>
       </c>
       <c r="B5" s="38">
         <f t="shared" si="0"/>
@@ -4340,37 +4285,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="50"/>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
     </row>
-    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="46"/>
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
     </row>
-    <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="46"/>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
     </row>
-    <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="46"/>
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
       <c r="D9" s="50"/>
     </row>
-    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="46"/>
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
       <c r="D10" s="50"/>
     </row>
-    <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="46"/>
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
@@ -4389,9 +4334,9 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="29.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="29.75" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="39" t="s">
         <v>21</v>
       </c>
@@ -4405,10 +4350,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="51" t="str" cm="1">
         <f t="array" ref="A2:D5">_xlfn._xlws.SORT(Individuals_Raw!A2:D5, 2, -1)</f>
-        <v>noah</v>
+        <v>Noah Mcredmond</v>
       </c>
       <c r="B2" s="36">
         <v>23</v>
@@ -4420,9 +4365,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="52" t="str">
-        <v>hildy</v>
+        <v>Axe (Hildy)</v>
       </c>
       <c r="B3" s="37">
         <v>14</v>
@@ -4434,9 +4379,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="52" t="str">
-        <v>clete</v>
+        <v>Aidan Hook</v>
       </c>
       <c r="B4" s="37">
         <v>11</v>
@@ -4448,9 +4393,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="29.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="53" t="str">
-        <v>clete</v>
+        <v>Clete Reinberger</v>
       </c>
       <c r="B5" s="38">
         <v>9</v>
@@ -4462,37 +4407,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
     </row>
-    <row r="7" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
     </row>
-    <row r="8" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
     </row>
-    <row r="9" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
     </row>
-    <row r="10" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="46"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
     </row>
-    <row r="11" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="29.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
